--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>Progess Bar</t>
+  </si>
+  <si>
+    <t>kick off</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>test + fix bug</t>
   </si>
 </sst>
 </file>
@@ -162,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -253,11 +268,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,31 +335,40 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="3" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -298,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -314,11 +393,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,6 +422,35 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +782,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
@@ -688,28 +791,28 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3"/>
@@ -718,35 +821,35 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4"/>
@@ -755,49 +858,49 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5"/>
@@ -806,49 +909,49 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -868,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,38 +1090,101 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="34"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="32"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H12:L12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -69,23 +69,62 @@
     <t>kick off</t>
   </si>
   <si>
-    <t>research</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>test + fix bug</t>
+  </si>
+  <si>
+    <t>research + document</t>
+  </si>
+  <si>
+    <t>Initiate project</t>
+  </si>
+  <si>
+    <t>23h 14/10/2014</t>
+  </si>
+  <si>
+    <t>Hello world Project with completed config</t>
+  </si>
+  <si>
+    <t>Game Play and Function</t>
+  </si>
+  <si>
+    <t>Database version 1</t>
+  </si>
+  <si>
+    <t>Research + Demo Java Websocket</t>
+  </si>
+  <si>
+    <t>Document Template</t>
+  </si>
+  <si>
+    <t>23h 15/10/2014</t>
+  </si>
+  <si>
+    <t>Iterator partern</t>
+  </si>
+  <si>
+    <t>Facade partern</t>
+  </si>
+  <si>
+    <t>Builder partern</t>
+  </si>
+  <si>
+    <t>Builder partern vs Façade partern</t>
+  </si>
+  <si>
+    <t>complete silde</t>
+  </si>
+  <si>
+    <t>complete slide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +159,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,25 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,8 +204,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -288,6 +340,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -355,102 +418,95 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,15 +809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F27"/>
+  <dimension ref="B3:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -782,187 +841,261 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -974,115 +1107,118 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>17</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>18</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>19</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>20</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>21</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <v>22</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="4">
         <v>23</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="4">
         <v>24</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <v>25</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="4">
         <v>26</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="4">
         <v>27</v>
       </c>
     </row>
@@ -1090,102 +1226,106 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="27"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13" s="34"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="33"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="32"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="F9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -118,13 +118,19 @@
   </si>
   <si>
     <t>complete slide</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +168,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -422,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,40 +452,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,7 +474,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,7 +483,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,13 +492,38 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +836,7 @@
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -841,254 +858,258 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1106,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,26 +1269,26 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="37">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1276,11 +1297,11 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1289,33 +1310,33 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="10"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="14"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="15"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="22"/>
+      <c r="L14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -462,6 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,8 +521,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,89 +867,93 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -953,98 +966,102 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -1057,55 +1074,57 @@
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -1127,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1178,10 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1203,10 +1222,10 @@
       <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="47">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="48">
         <v>16</v>
       </c>
       <c r="E4" s="4">
@@ -1269,26 +1288,26 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="32">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1300,8 +1319,8 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1313,14 +1332,14 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -121,6 +121,33 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Web Interface</t>
+  </si>
+  <si>
+    <t>Web js game</t>
+  </si>
+  <si>
+    <t>23h 20/10/2014</t>
+  </si>
+  <si>
+    <t>23h 21/10/2014</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>Code BLL</t>
+  </si>
+  <si>
+    <t>Code Dal</t>
+  </si>
+  <si>
+    <t>23h 22/10/2014</t>
+  </si>
+  <si>
+    <t>Code Servlet</t>
   </si>
 </sst>
 </file>
@@ -433,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,66 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,6 +500,68 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +896,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -884,7 +913,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="19" t="s">
         <v>23</v>
       </c>
@@ -897,7 +926,7 @@
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
@@ -910,7 +939,7 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
@@ -925,206 +954,230 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -1146,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,16 +1231,16 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1222,16 +1275,16 @@
       <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="27">
         <v>15</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="27">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="27">
         <v>17</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="28">
         <v>18</v>
       </c>
       <c r="G4" s="4">
@@ -1288,29 +1341,29 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="42">
         <v>1</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1319,10 +1372,10 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1332,14 +1385,14 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G13" s="9"/>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Nguyễn Ngọc Thanh Hải</t>
   </si>
@@ -148,13 +148,19 @@
   </si>
   <si>
     <t>Code Servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referenced file Servlet.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">referenced Requirement BLL functions at file Servlet.xlsx </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +210,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +279,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -460,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,14 +523,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,8 +593,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +931,7 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1028,7 +1084,9 @@
         <v>42</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
@@ -1146,7 +1204,9 @@
         <v>42</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
@@ -1199,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,19 +1291,19 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1258,7 +1318,7 @@
       <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="57" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1275,19 +1335,19 @@
       <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>15</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>16</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>17</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <v>18</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="26">
         <v>19</v>
       </c>
       <c r="H4" s="4">
@@ -1302,7 +1362,7 @@
       <c r="K4" s="4">
         <v>23</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="57">
         <v>24</v>
       </c>
       <c r="M4" s="4">
@@ -1360,11 +1420,15 @@
       <c r="B10" s="42">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="54"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1373,11 +1437,11 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1411,11 +1475,13 @@
       <c r="L14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="G12:L12"/>
     <mergeCell ref="F9:L9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Document/Task.xlsx
+++ b/Document/Task.xlsx
@@ -286,15 +286,15 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkUp">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor theme="0"/>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="darkUp">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="3" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -503,7 +503,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -533,6 +532,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,18 +610,15 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,296 +954,296 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1260,7 +1262,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,19 +1293,19 @@
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1318,7 +1320,7 @@
       <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1335,19 +1337,19 @@
       <c r="B4" s="3">
         <v>14</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>15</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>16</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>17</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>18</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>19</v>
       </c>
       <c r="H4" s="4">
@@ -1362,7 +1364,7 @@
       <c r="K4" s="4">
         <v>23</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="29">
         <v>24</v>
       </c>
       <c r="M4" s="4">
@@ -1379,100 +1381,100 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="47" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="B10" s="43">
         <v>1</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="50">
         <v>0.9</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="11"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="12"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="13"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
